--- a/Main.xlsx
+++ b/Main.xlsx
@@ -526,7 +526,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
